--- a/all_output2.xlsx
+++ b/all_output2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,128 +438,215 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>40</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Discipline</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Att</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Open</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Highest Resp.</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 1 Status</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 1 Author</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 1 Email</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 1 Date</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 1 Text</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 1 Att</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 2 Status</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 2 Author</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 2 Email</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 2 Date</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 2 Text</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 2 Att</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 3 Status</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 3 Author</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 3 Email</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 3 Date</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 3 Text</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 3 Att</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 4 Status</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 4 Author</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 4 Email</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 4 Date</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 4 Text</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 4 Att</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 5 Status</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 5 Author</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 5 Email</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 5 Date</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 5 Text</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Resp 5 Att</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -604,63 +691,63 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>510</v>
-      </c>
-      <c r="M2" t="inlineStr">
+        <v>511</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2024-04-23 12:48:00</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>In order to do separate DOAS units the occupant ventilation load was pulled out of the AHU spaces and put into the DOAS spaces. The ventilation load is still in the load calculation, they are just in a different space. See the "vent only" spaces (page 937, 940, 943) with the ventilation loads matching the ventilation calculation documents.</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2024-04-23 15:19:00</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Closed without comment.</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>2024-04-23 15:19:00</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Closed without comment.</t>
-        </is>
-      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -668,6 +755,7 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -710,7 +798,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -742,6 +830,7 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -785,80 +874,80 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>510</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2024-04-23 12:48:00</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>(1) Radon risers to be included as part of next submission.  
 (2)  P-100 piping legend, symbols and abbreviations to be revised to include radon as part of next submission.</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:50:00</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:50:00</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -866,6 +955,7 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -909,79 +999,79 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>509</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2024-04-23 12:48:00</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Will make that correction at next submittal since there most likely will be other architectural changes.</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:50:00</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:50:00</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -989,6 +1079,7 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1032,79 +1123,79 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>509</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2024-04-23 12:48:00</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Will make that correction at next submittal since there most likely will be other architectural changes.</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:50:00</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:50:00</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1112,6 +1203,7 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1155,120 +1247,121 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>508</v>
-      </c>
-      <c r="M7" t="inlineStr">
+        <v>509</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2024-04-23 12:49:00</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Paint booth equipment coordination is taking place. Next submittal will have design for the HVAC included.</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:47:00</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>During 35% OBR, Navy clarified that there is no paint booth inside the room. The room is a paint room.</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>2025-05-01 00:41:00</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Paint booth equipment coordination is taking place. Next submittal will have design for the HVAC included.
 DRM clarified that paint booth will not be a separate interior module within the room. With this understanding, future MECH drawings will include Makeup/Exhaust system as described in narrative.
 Control system of independent Makeup/Exhaust system will be designed to maintain a room pressure low enough to prevent exfiltration but not extreme enough to overcome sealing of overhead doors.</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr">
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:51:00</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:47:00</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>During 35% OBR, Navy clarified that there is no paint booth inside the room. The room is a paint room.</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:51:00</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1316,79 +1409,79 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>508</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2024-04-28 18:12:00</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Narrative to be revised to remove duplicate elements as part of next submittal.</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:52:00</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:52:00</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1396,6 +1489,7 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1438,79 +1532,79 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>508</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2024-04-28 18:12:00</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Active radon mitigation system design to be developed as part of next submission.  Items to be included: exhaust fan &amp; accessories.</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:52:00</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:52:00</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1518,6 +1612,7 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1561,79 +1656,79 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>508</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2024-04-28 18:12:00</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Water heater schedule &amp; equipment tags to be revised &amp; coordinated.  Revision to be included with next submission.</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:55:00</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -1641,6 +1736,7 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1687,79 +1783,79 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>508</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2024-04-28 18:13:00</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Calculation table to be revised to coordinate with Fixture usage assumptions.  Revised calculation &amp; WUI to be provided with next submission.</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:55:00</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -1767,6 +1863,7 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1814,79 +1911,79 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>507</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2024-04-28 18:13:00</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Sanitary &amp; vent risers to bee coordination &amp; moved away from structural elements.</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:55:00</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -1894,6 +1991,7 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1937,79 +2035,79 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>504</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2024-04-28 18:13:00</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Equipment pad note to be revised &amp; coordinated with structural. Revision to be included with next submission.</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:55:00</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>2025-06-04 19:58:00</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:55:00</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2017,6 +2115,7 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2060,79 +2159,79 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>504</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2024-04-23 12:49:00</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>General sheets notes to be removed from P-100A to P131D, notes to be placed on sheet P-001.  Revised sheets to be included as part of next submission.</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>2025-05-05 10:56:00</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>2025-05-05 10:56:00</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -2140,6 +2239,7 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2186,30 +2286,30 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>504</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2024-04-28 18:13:00</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Will investigate various options for Japanese products and provide necessary cut sheets and revise the drawings accordingly.</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -2234,6 +2334,7 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2276,119 +2377,120 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>504</v>
-      </c>
-      <c r="M16" t="inlineStr">
+        <v>505</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2024-04-28 18:14:00</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Marked for Discussion - Initial coordination within the main mechanical room identified limited space.</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:21:00</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>During 35% OBR, A-E said that there was not enough space to put the potable water backflow preventer and the 100mm radon riser in MECHANICAL 123, but A-E said they would look into it more.</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
         <is>
           <t>2025-05-01 00:42:00</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Domestic water entrance with backflow prevention and meter line-up:  Review of the Mech 123 doesn't allow for sufficient space to have BFP and meter lineup occur in straight line.  There appears to be sufficient space for modified layout (building meter &amp; bypass located above the BFP in Ieu of inline).    Suggestion of locating the domestic water BFP outside the building is not preferred due to limited greenspace and additional needed protection from weather and accidents.  As of this time, Designer is having difficulties locating BAA compliant vertical ASSE 1013 BFP, recommend moving forward with horizontal ASSE 1013 BFP. 
 Radon Riser to be relocation into Mech 123, plan northeast corner.</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr">
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:21:00</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>During 35% OBR, A-E said that there was not enough space to put the potable water backflow preventer and the 100mm radon riser in MECHANICAL 123, but A-E said they would look into it more.</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:05:00</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2432,30 +2534,30 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>504</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2024-04-28 18:14:00</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Will add the raceway symbol to the legend on E-001.</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
@@ -2480,6 +2582,7 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2524,30 +2627,30 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>504</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2024-04-28 18:15:00</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hazardous classification notes will be developed for the next level of design.</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -2572,6 +2675,7 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2614,79 +2718,79 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>504</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2024-04-23 12:50:00</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Compressed air connection details to be revised specifically for connection.  Consolidated details to be included with next submission.</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:03:00</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:03:00</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -2694,6 +2798,7 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2736,79 +2841,79 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>504</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2024-04-23 12:50:00</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Plumbing fixture schedule references to ADA to be revied to ABA, revision to be included in next submission.</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:03:00</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:03:00</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -2816,6 +2921,7 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2858,52 +2964,52 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>504</v>
-      </c>
-      <c r="M21" t="inlineStr">
+        <v>505</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2024-04-28 18:15:00</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>The routing was shown under the building to minimize voltage drop.  However, per your request, we can route it outside the building footprint and find other ways to compensate for additional cable length and keep the voltage drop within acceptable limits.</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
         <is>
           <t>2025-04-09 12:18:00</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>The routing will be revised to go around the building footprint. Will adjust service feeders as needed to ensure the voltage drop remain within the allowable 2%.</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -2922,6 +3028,7 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2964,30 +3071,30 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>504</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2024-04-28 18:15:00</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Noted.  Will ensure capabilities are met for the next submittal.</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -3012,6 +3119,7 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3054,118 +3162,119 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>504</v>
-      </c>
-      <c r="M23" t="inlineStr">
+        <v>505</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2024-04-23 12:50:00</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Marked for Discussion - We are trying to reduce the amount of piping going through the mechanical room since there is already a lot of congestion in that area. The locations we are using are also cheaper to construct.</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:24:00</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>During 35% OBR, A-E explained again the reason of the condensing units' locations.</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr">
         <is>
           <t>2025-04-16 23:36:00</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>We are trying to reduce the amount of piping going through the mechanical room since there is already a lot of congestion in that area. The locations we are using are also cheaper to construct. This is a cost of concrete vs. cost of piping.</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr">
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:04:00</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:24:00</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>During 35% OBR, A-E explained again the reason of the condensing units' locations.</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:04:00</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3214,63 +3323,63 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>503</v>
-      </c>
-      <c r="M24" t="inlineStr">
+        <v>504</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2024-04-23 12:50:00</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Marked for Discussion - Manufacturer sized coiled based on what was needed to meet the sensible load requirement. Total size may be larger, but the sensible load is close. As for heating coils, that is something we are still looking into and it may be a design restraint in the AHU selection options. Pending the VE analysis though, AHU's may be redesigned so new selections will be made for next submittal. As for the water temp change, it is a difference of 1/10 of a degree. There is no equipment performance change from that small of a degree. One schedule got rounded up and the other did not. The design temperatures should be the same. We will edit the schedules correctly at the next submittal.</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:29:00</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:29:00</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
-        </is>
-      </c>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -3278,6 +3387,7 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3322,68 +3432,68 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>502</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2024-04-28 18:16:00</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Will investigate various options for Japanese products and provide necessary cut sheets and revise the drawings accordingly.</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>2024-05-07 09:06:00</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>I would like to explanation that our researched on XFMR using FR3 in Japan.
+In Japan, the voltage classes of transformers using FR3 are 6.6kV for facilities, 20kV, 30kV, 60kV, 70kV and 140kV for substations.
+Unfortunately, no transformers using FR3 have been manufactured in the 13.8kV class.
+Therefore, if FR3 is required by the user in this project, the adoption of the U.S. product may be preferred.
+Please consider this concern when selecting a transformer.
+However, if mineral oil is used, Japanese products can be used.</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>Atsushi Nagamine</t>
-        </is>
-      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>2024-05-07 09:06:00</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>I would like to explanation that our researched on XFMR using FR3 in Japan.
-In Japan, the voltage classes of transformers using FR3 are 6.6kV for facilities, 20kV, 30kV, 60kV, 70kV and 140kV for substations.
-Unfortunately, no transformers using FR3 have been manufactured in the 13.8kV class.
-Therefore, if FR3 is required by the user in this project, the adoption of the U.S. product may be preferred.
-Please consider this concern when selecting a transformer.
-However, if mineral oil is used, Japanese products can be used.</t>
-        </is>
-      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -3391,6 +3501,7 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3435,75 +3546,76 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>502</v>
-      </c>
-      <c r="M26" t="inlineStr">
+        <v>503</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2024-04-23 12:51:00</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Marked for Discussion - This should be discussed with the maintenance staff to find out which VAV boxes they keep in stock for repairs/replacements. Will coordinate with them and update the design per the resolution.</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:39:00</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>During 35% OBR, the importance of matching supply voltage and equipment has been brought to A-E's attention. The A-E would design based on Japanese manufacturer equipment as much as possible if approved to move to 65% design.
+Maintenance replies in email that they "do not have a preference on VAV box manufactures only on the controllers going inside them that they are ALC controls. This is due to the fact that we have not seen any VAV boxes fail other maybe 1 or 2 they are extremely reliable."</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:39:00</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>During 35% OBR, the importance of matching supply voltage and equipment has been brought to A-E's attention. The A-E would design based on Japanese manufacturer equipment as much as possible if approved to move to 65% design.
-Maintenance replies in email that they "do not have a preference on VAV box manufactures only on the controllers going inside them that they are ALC controls. This is due to the fact that we have not seen any VAV boxes fail other maybe 1 or 2 they are extremely reliable."</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3546,79 +3658,79 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>502</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2024-04-23 12:51:00</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>We will make that correction at the next submittal.</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:04:00</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:04:00</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
@@ -3626,6 +3738,7 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3669,30 +3782,30 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>502</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2024-04-23 12:51:00</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Will confirm with base comm office and provide requirements/notation for 3-cell fabric mesh innerduct in external comm duct banks carrying fiber.</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -3717,6 +3830,7 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3759,30 +3873,30 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>502</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2024-04-23 12:51:00</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>We will review design docs and reach our for quoted pricing for the next submittal.</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -3807,6 +3921,7 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3853,30 +3968,30 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>502</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2024-04-28 18:16:00</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>It is understood that 460V motors will operate on a 480V system. Will coordinate closely with other disciplines to ensure proper voltage ratings of motors and equipment are selected to be able to operate on a 480V system.</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -3901,6 +4016,7 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3943,79 +4059,79 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>502</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>2024-04-23 12:52:00</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>All manufacturer and model references to be removed from Detail A12/P-503 and plumbing drawings.  Revision to be included in next submission.</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:04:00</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:04:00</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
@@ -4023,6 +4139,7 @@
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4071,79 +4188,79 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>502</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>2024-04-28 18:16:00</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Compressed air drawings to be separated from Radon Drawings.  Enlarged plan and overall plans to be provided as part of next submission.</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:04:00</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:04:00</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
@@ -4151,6 +4268,7 @@
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4193,63 +4311,63 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>502</v>
-      </c>
-      <c r="M33" t="inlineStr">
+        <v>503</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2024-04-23 12:52:00</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Cutsheet label was meant to be for HWP-3&amp;4, not 1&amp;2. RPM was rounded slightly differently (1750 vs 1800), but pressure and gpm match schedule for 3&amp;4.</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:44:00</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:44:00</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
-        </is>
-      </c>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
@@ -4257,6 +4375,7 @@
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4300,63 +4419,63 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>501</v>
-      </c>
-      <c r="M34" t="inlineStr">
+        <v>502</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>2024-04-23 12:52:00</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Marked for Discussion - Pending VE analysis, AHU's may be redesigned. New cutsheets and schedule updates will be provided at next submittal.</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:44:00</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:44:00</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
-        </is>
-      </c>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
@@ -4364,6 +4483,7 @@
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4406,63 +4526,63 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>501</v>
-      </c>
-      <c r="M35" t="inlineStr">
+        <v>502</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2024-04-23 12:53:00</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Marked for Discussion - Pending VE analysis, AHU's may be redesigned. Mechanical rooms may be reconfigured at that time. But currently, sections are not needed to understand the intent of the HVAC design.</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:41:00</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Closed without comment.</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:41:00</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Closed without comment.</t>
-        </is>
-      </c>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
@@ -4470,6 +4590,7 @@
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4513,63 +4634,63 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>501</v>
-      </c>
-      <c r="M36" t="inlineStr">
+        <v>502</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2024-04-23 12:53:00</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Marked for Discussion - Pending VE analysis, if the intake ventilator hood is still in the design, tag and schedule will be added to drawings on next submittal.</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>2024-05-17 14:45:00</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>2024-05-17 14:45:00</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>During 35% OBR, Navy clarified that there likely would be one shift of 80 people. Since Navy had described two shifts of 40 people each in the Planning Charrette, the A-E will need to resize the equipment if approved to move to 65% design. So the above comment may not be relevant anymore.</t>
-        </is>
-      </c>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
@@ -4577,6 +4698,7 @@
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4621,30 +4743,30 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>500</v>
-      </c>
-      <c r="M37" t="inlineStr">
+        <v>501</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2024-04-23 12:53:00</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Decision was made to hold off on laying out data outlets until cleared for 65% design phase in order to avoid rework due to any architectural/programming changes. Full data outlet layouts shall be provided at next submittal.</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -4669,6 +4791,7 @@
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4711,30 +4834,30 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>500</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>2024-04-28 18:17:00</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Will ensure UFC required spare and space capacities are adhered to.</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -4759,6 +4882,7 @@
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4806,30 +4930,30 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>500</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>2024-04-23 12:54:00</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>Revised rates were provided and used for this submittal. We will verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -4854,6 +4978,7 @@
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4901,30 +5026,30 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>500</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>2024-04-23 12:54:00</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Per 35% requirements, communications drawings, design analysis, and preliminary telecom cutsheets were provided. Additional drawing content development shall be provided at 65% design submittal as per JED design guide.</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -4949,6 +5074,7 @@
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4992,35 +5118,35 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>499</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>2024-04-30 04:01:00</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Those diagonal tie beams are not necessary and will be removed since the pile caps already have tie beams in two directions.</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -5044,6 +5170,7 @@
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5087,30 +5214,30 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>499</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>2024-04-28 18:17:00</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>The slab will not be used to brace pile caps.  Additional tie beam will be added to provide bracing for all pile caps in both directions.</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -5135,6 +5262,7 @@
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5177,30 +5305,30 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>499</v>
-      </c>
-      <c r="M43" t="inlineStr">
+        <v>501</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>2024-04-28 18:18:00</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>We anticipate that the slab on grade concrete within confined rooms would need to be placed by pumped concrete.  This is a contractor means and methods and is constructable.</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -5225,6 +5353,7 @@
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5269,30 +5398,30 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>497</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>2024-04-28 18:18:00</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>Will review lighting layout in the battery rooms and updated layout accordingly for next level of design.</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -5317,6 +5446,7 @@
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5361,30 +5491,30 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>497</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>2024-04-28 18:18:00</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Will locate switches outside battery rooms.</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -5409,6 +5539,7 @@
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5455,119 +5586,120 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>497</v>
-      </c>
-      <c r="M46" t="inlineStr">
+        <v>498</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>2024-04-28 18:18:00</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>One (1) lead or Ceramic Line sink to be provided for Lead-acid battery room RM 118B; One (1) lead or Ceramic Line sink to be provided for Ni-CAD Battery room 118A.  Updates &amp; Coordination to be included as part of next submission.  
 Room tope 62O Battery Shop - office area, ( P-8A POSEIDON FACILITIES REQUIREMENT DOCUMENT)  Identifies (1) emergency eyewash/shower required, hot &amp; cold water in cleaning area and for wash.  Please clarify direction: provide (1) emergency combination eyewash/shower or (1) emergency eyewash and provide (1) lead or ceramic line sink.</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>2024-05-29 11:20:00</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>MM_JD P530 AIMF_20240502.pdf, Page 12 of 48, #4.e.i, "Per Correspondence dated 5/2/2024 from Lt. Brayan S. Ramos Diaz, "end user services batteries in &amp; service sink is required"; provide service sink &amp; emergency eye wash in RM 118"</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr">
         <is>
           <t>2025-04-16 23:15:00</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>Room 118 to be provided with Utility sink and emergency eye wash.</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr">
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:04:00</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>2024-05-29 11:20:00</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>MM_JD P530 AIMF_20240502.pdf, Page 12 of 48, #4.e.i, "Per Correspondence dated 5/2/2024 from Lt. Brayan S. Ramos Diaz, "end user services batteries in &amp; service sink is required"; provide service sink &amp; emergency eye wash in RM 118"</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AL46" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:04:00</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5610,120 +5742,121 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>497</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>2024-04-23 12:54:00</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Emergency shower/eyewash &amp; point of use heater to be included in the Battery shop.  Update to be included in next submission.</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>2025-05-01 01:04:00</t>
-        </is>
-      </c>
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Room 118 to be provided with Utility sink and emergency eye wash.</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>2025-06-04 19:59:00</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>thank you</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr">
-        <is>
           <t>2024-05-29 11:48:00</t>
         </is>
       </c>
-      <c r="AI47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>Related to Comment 10755028.
 MM_JD P530 AIMF_20240502.pdf, Page 12 of 48, #4.e.i, "Per Correspondence dated 5/2/2024 from Lt. Brayan S. Ramos Diaz, "end user services batteries in &amp; service sink is required"; provide service sink &amp; emergency eye wash in RM 118 (Battery Shop)"
 And as documented in MM_JD P530 AIMF_20240502.pdf, Page 12 of 48, #4.b, point source water heater is not needed.</t>
         </is>
       </c>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr">
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>2025-05-01 01:04:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Room 118 to be provided with Utility sink and emergency eye wash.</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr">
         <is>
           <t>Non-Concur</t>
         </is>
       </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:05:00</t>
-        </is>
-      </c>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr"/>
+          <t>2025-06-04 19:59:00</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>thank you</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5767,79 +5900,79 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>497</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>2024-04-23 12:54:00</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>We will make that correction at the next submittal.</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>2025-05-05 11:05:00</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Noted. Will backcheck this comment during the next submittal review.</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr">
         <is>
           <t>2025-06-04 19:59:00</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>thank you</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>Yat Hung Chan</t>
-        </is>
-      </c>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>2025-05-05 11:05:00</t>
-        </is>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>Noted. Will backcheck this comment during the next submittal review.</t>
-        </is>
-      </c>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
@@ -5847,6 +5980,7 @@
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5893,52 +6027,52 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>496</v>
-      </c>
-      <c r="M49" t="inlineStr">
+        <v>497</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>2024-04-28 18:19:00</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Mark for discussion - want to follow up at the DRM and get direction on what materials plan to be stored in RM112 so that the proper NEC criteria can be applied to the design.</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
         <is>
           <t>2025-04-09 12:19:00</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>The Hazmat Rm 112 is to be used for bio-hazard materials and not any explosive/flammable materials that would trigger the application of NEC 500.</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -5957,6 +6091,7 @@
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6001,30 +6136,30 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>496</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>2024-04-28 18:19:00</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Will coordinate any eye wash requirements with mechanical and plumbing designers.</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -6049,6 +6184,7 @@
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6091,30 +6227,30 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>496</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>2024-04-23 12:55:00</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -6139,6 +6275,7 @@
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6181,30 +6318,30 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>496</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>2024-04-23 12:55:00</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -6229,6 +6366,7 @@
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6271,30 +6409,30 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>496</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>2024-04-23 12:55:00</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -6319,6 +6457,7 @@
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6361,30 +6500,30 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>496</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>2024-04-23 12:55:00</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -6409,6 +6548,7 @@
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6451,30 +6591,30 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>496</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>2024-04-23 12:57:00</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>We will review / verify / correct for the next submittal.</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -6499,6 +6639,7 @@
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6541,30 +6682,30 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>496</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>2024-04-23 12:57:00</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>We will review / verify / correct for the next submittal.</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -6589,6 +6730,7 @@
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6631,30 +6773,30 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>496</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
         <is>
           <t>2024-04-23 12:57:00</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>We will review / verify / correct for the next submittal.</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -6679,6 +6821,7 @@
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6721,30 +6864,30 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>496</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
         <is>
           <t>2024-04-23 12:57:00</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>We will review / verify / correct for the next submittal.</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -6769,6 +6912,7 @@
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6811,30 +6955,30 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>496</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
         <is>
           <t>2024-04-23 12:57:00</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>We will review / verify / correct for the next submittal.</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -6859,6 +7003,7 @@
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6904,30 +7049,30 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>496</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
         <is>
           <t>2024-04-18 13:20:00</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>Attachments for 01 33 29 will be included once we submit edited specs (next submittal).</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -6952,6 +7097,7 @@
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6994,30 +7140,30 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>496</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2024-04-18 13:21:00</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>submittals which support project sustainability HPSB &amp; TPC goals will be marked "S"; this will be expressed in the next submittal when the edited specs are provided.</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -7042,6 +7188,7 @@
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7088,30 +7235,30 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>496</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
         <is>
           <t>2024-04-18 13:23:00</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>Spec cover as provided will be used in subsequent submittals.</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -7136,6 +7283,7 @@
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7179,30 +7327,30 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>496</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>2024-04-23 12:58:00</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>Will remove and edit notes accordingly</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -7227,6 +7375,7 @@
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7273,30 +7422,30 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>496</v>
-      </c>
-      <c r="M64" t="inlineStr">
+        <v>497</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
         <is>
           <t>2024-04-18 13:26:00</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>This is in the schedule per our Statement of work; however, it is part of the intermediate submittal which is not awarded at this time. Once the rest of design (Code 6) is awarded, an updated schedule will be provided which includes a specific meeting to discuss the CLIN schedule.</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -7321,6 +7470,7 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7363,63 +7513,63 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>496</v>
-      </c>
-      <c r="M65" t="inlineStr">
+        <v>497</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
         <is>
           <t>2024-04-30 02:46:00</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>According to Apexa McLain, this will be completed at the 65% submittal once Code 6 is received.</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Sherwin Edquiban</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>2024-05-08 15:22:00</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Understood, comment closed.</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF65" t="inlineStr">
-        <is>
-          <t>Sherwin Edquiban</t>
-        </is>
-      </c>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr">
-        <is>
-          <t>2024-05-08 15:22:00</t>
-        </is>
-      </c>
-      <c r="AI65" t="inlineStr">
-        <is>
-          <t>Understood, comment closed.</t>
-        </is>
-      </c>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
@@ -7427,6 +7577,7 @@
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7470,30 +7621,30 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>495</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>2024-04-28 18:20:00</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>Will provide necessary elevator design requirements at next level of design.</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -7518,6 +7669,7 @@
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7561,30 +7713,30 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>495</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
         <is>
           <t>2024-04-28 18:21:00</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>Will provide necessary elevator design requirements at next level of design.</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -7609,6 +7761,7 @@
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7652,30 +7805,30 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>495</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>2024-04-28 18:21:00</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>Will provide necessary elevator design requirements at next level of design.</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -7700,6 +7853,7 @@
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7742,30 +7896,30 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>495</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
         <is>
           <t>2024-04-18 13:31:00</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>We will reconcile lead levels between the two referenced specifications - priority given to 01 57 19.01.</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -7790,6 +7944,7 @@
       <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7832,30 +7987,30 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>495</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
         <is>
           <t>2024-04-18 13:32:00</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>This attachment will not be included in the project specs.</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -7880,6 +8035,7 @@
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7922,63 +8078,63 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>493</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
         <is>
           <t>2024-04-23 12:58:00</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>We typically only carry what we will pay the General Contractor in the MCACES file, adding SIO and Contingency on a separate spreadsheet. This helps avoid confusion regarding the CCL versus the Programmed Amount. We can modify if JED prefers the MCACES to include those government markups.</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>2024-06-19 11:30:00</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>The MII should carry those markups and should match the PDF spreadsheet for future reference.</t>
+        </is>
+      </c>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>Simon Jackson</t>
-        </is>
-      </c>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>2024-06-19 11:30:00</t>
-        </is>
-      </c>
-      <c r="AI71" t="inlineStr">
-        <is>
-          <t>The MII should carry those markups and should match the PDF spreadsheet for future reference.</t>
-        </is>
-      </c>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
@@ -7986,6 +8142,7 @@
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8028,63 +8185,63 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>493</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>2024-04-28 18:22:00</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>Plumbing fixture schedule to be updated and coordinated with next submission.</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>2024-06-19 11:30:00</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Closed without comment.</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
-      <c r="AF72" t="inlineStr">
-        <is>
-          <t>Simon Jackson</t>
-        </is>
-      </c>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr">
-        <is>
-          <t>2024-06-19 11:30:00</t>
-        </is>
-      </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>Closed without comment.</t>
-        </is>
-      </c>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
@@ -8092,6 +8249,7 @@
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8134,79 +8292,79 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>493</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
         <is>
           <t>2024-04-28 18:22:00</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>Continuation/match lines to be identified and included in next submission.</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
+          <t>Non-Concur</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>2024-06-19 11:31:00</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Will verify on next submission</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr">
         <is>
           <t>2025-04-09 12:37:00</t>
         </is>
       </c>
-      <c r="W73" t="inlineStr">
+      <c r="AD73" t="inlineStr">
         <is>
           <t>Thank you!</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr">
-        <is>
-          <t>Non-Concur</t>
-        </is>
-      </c>
-      <c r="AF73" t="inlineStr">
-        <is>
-          <t>Simon Jackson</t>
-        </is>
-      </c>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr">
-        <is>
-          <t>2024-06-19 11:31:00</t>
-        </is>
-      </c>
-      <c r="AI73" t="inlineStr">
-        <is>
-          <t>Will verify on next submission</t>
-        </is>
-      </c>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
@@ -8214,6 +8372,7 @@
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8256,30 +8415,30 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>493</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>2024-04-28 18:22:00</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>Radon System piping to be corrected. Correction to be included in next submission.</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -8304,6 +8463,7 @@
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8346,52 +8506,52 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>493</v>
-      </c>
-      <c r="M75" t="inlineStr">
+        <v>495</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr">
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
         <is>
           <t>2024-04-28 18:23:00</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>Marked for discussion - US industry design standard is a floor plan to show "inspector perspective"   (when a person is standing on that level to show everything that can been seen between the slab and the above deck.) Exceptions to this standard have been observed but not common.</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr">
         <is>
           <t>2025-04-16 22:44:00</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr">
+      <c r="X75" t="inlineStr">
         <is>
           <t>On foundation plans, pipe penetration locations' to be dimensioned from structure for reference.  Bottom of pipe below finished floor invert dimension to be identified.  Modifications to be included in next submission.</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
@@ -8410,6 +8570,7 @@
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
+      <c r="AQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8452,30 +8613,30 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>493</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
         <is>
           <t>2024-04-23 12:58:00</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
@@ -8500,6 +8661,7 @@
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
+      <c r="AQ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8542,30 +8704,30 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>493</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
         <is>
           <t>2024-04-28 18:24:00</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>Graphic scale to be revised to 1:100.  Modification to be included as part of next submission.</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -8590,6 +8752,7 @@
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr"/>
+      <c r="AQ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8632,30 +8795,30 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>493</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -8680,6 +8843,7 @@
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr"/>
+      <c r="AQ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8722,30 +8886,30 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>493</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -8770,6 +8934,7 @@
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8812,30 +8977,30 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>493</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
         <is>
           <t>2024-04-28 18:24:00</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>Sizing of all VTRs to be reviewed and modified as necessary as part of next submission.</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
@@ -8860,6 +9025,7 @@
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8902,30 +9068,30 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>493</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
         <is>
           <t>2024-04-28 18:24:00</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>Backflow preventer serving mechanical make-up to be identified on the plans as part of next submission.</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
@@ -8950,6 +9116,7 @@
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
+      <c r="AQ81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8992,30 +9159,30 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>493</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
         <is>
           <t>2024-04-28 18:24:00</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>Backflow preventer serving mechanical make-up to be identified on the plans as part of next submission.</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -9040,6 +9207,7 @@
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
+      <c r="AQ82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9082,30 +9250,30 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>493</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -9130,6 +9298,7 @@
       <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9172,30 +9341,30 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>493</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
@@ -9220,6 +9389,7 @@
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9266,30 +9436,30 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>493</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
@@ -9314,6 +9484,7 @@
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr"/>
+      <c r="AQ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9356,30 +9527,30 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>493</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
@@ -9404,6 +9575,7 @@
       <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr"/>
+      <c r="AQ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9446,30 +9618,30 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>493</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
@@ -9494,6 +9666,7 @@
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9536,30 +9709,30 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>493</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
@@ -9584,6 +9757,7 @@
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9626,30 +9800,30 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>493</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
@@ -9674,6 +9848,7 @@
       <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9716,30 +9891,30 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>493</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
@@ -9764,6 +9939,7 @@
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9806,30 +9982,30 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>493</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
         <is>
           <t>2024-04-23 12:59:00</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
@@ -9854,6 +10030,7 @@
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9896,30 +10073,30 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>493</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
         <is>
           <t>2024-04-23 13:00:00</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
@@ -9944,6 +10121,7 @@
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
+      <c r="AQ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9986,30 +10164,30 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>493</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
         <is>
           <t>2024-04-23 13:00:00</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
@@ -10034,6 +10212,7 @@
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr"/>
+      <c r="AQ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -10076,30 +10255,30 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>493</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
         <is>
           <t>2024-04-23 13:00:00</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
@@ -10124,6 +10303,7 @@
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10166,30 +10346,30 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>493</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
         <is>
           <t>2024-04-23 13:00:00</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr">
+      <c r="R95" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
@@ -10214,6 +10394,7 @@
       <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr"/>
+      <c r="AQ95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -10256,30 +10437,30 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>493</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
         <is>
           <t>2024-04-23 13:00:00</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>We will review / correct / verify for the next submittal.</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
@@ -10304,6 +10485,7 @@
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr"/>
+      <c r="AQ96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10346,30 +10528,30 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>489</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
         <is>
           <t>2024-04-28 18:25:00</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr">
+      <c r="R97" t="inlineStr">
         <is>
           <t>Water supply section of narrative updated to include additional demand</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
@@ -10394,6 +10576,7 @@
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr"/>
+      <c r="AQ97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10436,52 +10619,52 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>489</v>
-      </c>
-      <c r="M98" t="inlineStr">
+        <v>490</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr">
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
         <is>
           <t>2025-04-16 22:49:00</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="R98" t="inlineStr">
         <is>
           <t>The fire pump is still being verified if it can be removed or not. At this point, it is assumed that a fire pump will be included. The requirement for a fire pump will be confirmed prior to the next submittal.</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr">
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr">
         <is>
           <t>2025-05-01 01:07:00</t>
         </is>
       </c>
-      <c r="W98" t="inlineStr">
+      <c r="X98" t="inlineStr">
         <is>
           <t>04/18-Hydarulics have been updated to model underground conditions, existing base supply is sufficient to supply automatic sprinkler system. No fire pump is required and will not be installed. Design analysis to be updated to remove mention of providing a fire pump.</t>
         </is>
       </c>
-      <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
@@ -10500,6 +10683,7 @@
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr"/>
+      <c r="AQ98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10542,30 +10726,30 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>489</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
         <is>
           <t>2024-04-28 18:30:00</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>Narrative sesction revised for correct code references</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
@@ -10590,6 +10774,7 @@
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr"/>
+      <c r="AQ99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -10632,30 +10817,30 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>489</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
         <is>
           <t>2024-04-28 18:30:00</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr">
+      <c r="R100" t="inlineStr">
         <is>
           <t>Provided value in table has been updated. Frontage Increase Factor added to table</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
@@ -10680,6 +10865,7 @@
       <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr"/>
+      <c r="AQ100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10722,30 +10908,30 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>489</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
         <is>
           <t>2024-04-28 18:30:00</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr">
+      <c r="R101" t="inlineStr">
         <is>
           <t>Narrative revised to reference UFC 3-520-05, references to NPFA 855 removed.</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
@@ -10770,6 +10956,7 @@
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr"/>
+      <c r="AQ101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10812,30 +10999,30 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>489</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
         <is>
           <t>2024-04-28 18:31:00</t>
         </is>
       </c>
-      <c r="Q102" t="inlineStr">
+      <c r="R102" t="inlineStr">
         <is>
           <t>Narrative section and Life Safety drawings revised for 1-hour rated at battery storage. 2-hour requirement was from NFPA 855 and is not applicable.</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
@@ -10860,6 +11047,7 @@
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
+      <c r="AQ102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -10902,30 +11090,30 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>489</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
         <is>
           <t>2024-04-28 18:31:00</t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr">
+      <c r="R103" t="inlineStr">
         <is>
           <t>Narrative section revised to include code reference for each row. 2-hour requirement is from NFPA 400 Table 6.2.1.3 asterisks footnote</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
@@ -10950,6 +11138,7 @@
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
+      <c r="AQ103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10992,30 +11181,30 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>488</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
         <is>
           <t>2024-04-28 18:32:00</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr">
+      <c r="R104" t="inlineStr">
         <is>
           <t>Per Japan Design Guide, fire alarm matrix will be included for 65% submittal</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
@@ -11040,6 +11229,7 @@
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr"/>
+      <c r="AQ104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -11082,30 +11272,30 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>488</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
         <is>
           <t>2024-04-28 18:32:00</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>Per Japan Design Guide, fire alarm wiring diagram would be included for 65% submittal</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
@@ -11130,6 +11320,7 @@
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr"/>
+      <c r="AQ105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -11172,52 +11363,52 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>488</v>
-      </c>
-      <c r="M106" t="inlineStr">
+        <v>489</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr">
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
         <is>
           <t>2024-04-28 18:32:00</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>We would like to discuss locations at the 2nd floor. A text sign will be provided at the entrance to vestibule 100. Text signs have been removed from Maintenance Bay 109 and Training/Conference 208.</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+      <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr">
         <is>
           <t>2025-04-16 23:30:00</t>
         </is>
       </c>
-      <c r="W106" t="inlineStr">
+      <c r="X106" t="inlineStr">
         <is>
           <t>Per discussions at DRM design will follow the UFC and relocate signs to over stairwell doors as required by 4-6.2.1.</t>
         </is>
       </c>
-      <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
@@ -11236,6 +11427,7 @@
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr"/>
+      <c r="AQ106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11278,30 +11470,30 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>488</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
         <is>
           <t>2024-04-28 18:32:00</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr">
+      <c r="R107" t="inlineStr">
         <is>
           <t>Smoke detectors in battery rooms removed.</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
@@ -11326,6 +11518,7 @@
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr"/>
+      <c r="AQ107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -11368,30 +11561,30 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>488</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr">
         <is>
           <t>2025-05-01 01:06:00</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr">
+      <c r="R108" t="inlineStr">
         <is>
           <t>LOCs on first floor will be removed</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
@@ -11416,6 +11609,7 @@
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr"/>
+      <c r="AQ108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -11458,31 +11652,31 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>488</v>
-      </c>
-      <c r="M109" t="inlineStr">
+        <v>489</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr">
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
         <is>
           <t>2025-05-01 01:08:00</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr">
+      <c r="R109" t="inlineStr">
         <is>
           <t>The fire pump is still being verified if it can be removed or not. At this point, it is assumed that a fire pump will be included. The requirement for a fire pump will be confirmed prior to the next submittal.
 04/18-Hydarulics have been updated to model underground conditions, existing base supply is sufficient to supply automatic sprinkler system. No fire pump is required and will not be installed. Design analysis, plans, and specs to be updated to remove mention of providing a fire pump.</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
@@ -11507,6 +11701,7 @@
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr"/>
+      <c r="AQ109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -11549,30 +11744,30 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>488</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
         <is>
           <t>2024-04-28 18:33:00</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr">
+      <c r="R110" t="inlineStr">
         <is>
           <t>CO detector symbol removed from drawing legend</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
@@ -11597,6 +11792,7 @@
       <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="inlineStr"/>
+      <c r="AQ110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -11639,31 +11835,31 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>488</v>
-      </c>
-      <c r="M111" t="inlineStr">
+        <v>489</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr">
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
         <is>
           <t>2025-05-01 01:08:00</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr">
+      <c r="R111" t="inlineStr">
         <is>
           <t>The fire pump is still being verified if it can be removed or not. At this point, it is assumed that a fire pump will be included. The requirement for a fire pump will be confirmed prior to the next submittal.
 04/18-Hydarulics have been updated to model underground conditions, existing base supply is sufficient to supply automatic sprinkler system. No fire pump is required and will not be installed. Design analysis, plans, and specs to be updated to remove mention of providing a fire pump.</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
@@ -11688,6 +11884,7 @@
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr"/>
+      <c r="AQ111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -11730,30 +11927,30 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>488</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
         <is>
           <t>2024-04-28 18:33:00</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr">
+      <c r="R112" t="inlineStr">
         <is>
           <t>Exit sign will be added to plan.</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
@@ -11778,6 +11975,7 @@
       <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr"/>
+      <c r="AQ112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -11820,30 +12018,30 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>488</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Concur</t>
-        </is>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr">
+          <t>Concur</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
         <is>
           <t>2024-04-28 18:33:00</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr">
+      <c r="R113" t="inlineStr">
         <is>
           <t>Exit sign will be added to Room 113 leading to exterior.</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
@@ -11868,6 +12066,7 @@
       <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr"/>
+      <c r="AQ113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -11910,52 +12109,52 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>487</v>
-      </c>
-      <c r="M114" t="inlineStr">
+        <v>489</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
         <is>
           <t>Check And Resolve</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr">
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
         <is>
           <t>2024-04-28 18:34:00</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr">
+      <c r="R114" t="inlineStr">
         <is>
           <t>Need to verify if PIV can be wall mounted or required to be remote. Remote PIV will need to be at/near water meter. Location and type will determine protection requirements</t>
         </is>
       </c>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr">
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr">
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr">
         <is>
           <t>2025-05-01 01:09:00</t>
         </is>
       </c>
-      <c r="W114" t="inlineStr">
+      <c r="X114" t="inlineStr">
         <is>
           <t>Per NFPA 24 (2019) para 6.2.9 (option 6): Controlled valves installed in a fire-rated room accessible from the exterior. Therefore, a PIV is not needed. The control valves at the backflow within the fire protection room can act as the valve control for the building.</t>
         </is>
       </c>
-      <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
@@ -11974,6 +12173,7 @@
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr"/>
+      <c r="AQ114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -12016,30 +12216,30 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>480</v>
-      </c>
-      <c r="M115" t="inlineStr">
+        <v>481</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
         <is>
           <t>For Information Only</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Rebecca Knolle</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr">
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Rebecca Knolle</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
         <is>
           <t>2025-04-16 23:17:00</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr">
+      <c r="R115" t="inlineStr">
         <is>
           <t>Per conversation at the review meeting, insulation will be sandwiched in between concrete slabs. This design will meet fire requirements and is commonly used in Japan.</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
@@ -12064,6 +12264,7 @@
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr"/>
+      <c r="AQ115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
